--- a/data/trans_dic/P16A17-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A17-Provincia-trans_dic.xlsx
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001491976458654096</v>
+        <v>0.0014817868425393</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02569218069630085</v>
+        <v>0.02365109895520066</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0191824309918938</v>
+        <v>0.02040128744663322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01790741409908274</v>
+        <v>0.0167363125564996</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01342571165153407</v>
+        <v>0.01467882624005174</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001936116860912795</v>
+        <v>0.00193798605120725</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00222225650260925</v>
+        <v>0.002072858496503949</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001319509458199829</v>
+        <v>0.001315147473811337</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0181422830022319</v>
+        <v>0.01741422823522675</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02067329002124225</v>
+        <v>0.02222477052393684</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02067515444663555</v>
+        <v>0.01908038564837801</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01188558090205175</v>
+        <v>0.01182828000415554</v>
       </c>
     </row>
     <row r="10">
@@ -743,11 +743,11 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003026035224681236</v>
+        <v>0.003022541204639679</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.001564343445525241</v>
+        <v>0.001563539310945813</v>
       </c>
     </row>
     <row r="12">
@@ -758,14 +758,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01509333723229195</v>
+        <v>0.01670586943820311</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02499762666824021</v>
+        <v>0.02506823449756798</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.01426909390417416</v>
+        <v>0.01367075566014984</v>
       </c>
     </row>
     <row r="13">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002476257095297863</v>
+        <v>0.002465164268509841</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00234606247359852</v>
+        <v>0.002327903061291493</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
@@ -818,14 +818,14 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02406880670154162</v>
+        <v>0.02198172617197721</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02351789111296557</v>
+        <v>0.02202708081137205</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.008662631643971793</v>
+        <v>0.007651800800573997</v>
       </c>
     </row>
     <row r="16">
@@ -849,7 +849,7 @@
         <v>0.01673109980665722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.003599302962604131</v>
+        <v>0.00359930296260413</v>
       </c>
     </row>
     <row r="17">
@@ -864,7 +864,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.004022100174861323</v>
+        <v>0.003985662416673134</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -878,14 +878,14 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02726841146951109</v>
+        <v>0.02446183653026261</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.04106220173182427</v>
+        <v>0.03806732572140427</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0122698923215041</v>
+        <v>0.01306126687003215</v>
       </c>
     </row>
     <row r="19">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003592318140405324</v>
+        <v>0.004382590570395178</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
@@ -938,14 +938,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03456031543217981</v>
+        <v>0.03625734816046021</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02077011300388541</v>
+        <v>0.02400494718583333</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.01061720838355384</v>
+        <v>0.01317415736004011</v>
       </c>
     </row>
     <row r="22">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.002995414834480711</v>
+        <v>0.002975279680507917</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.001469503024192954</v>
+        <v>0.001463951818524047</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003187632843858281</v>
+        <v>0.003088181492133237</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.002669302532850443</v>
+        <v>0.002999787012768799</v>
       </c>
     </row>
     <row r="24">
@@ -1000,16 +1000,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0172676033410939</v>
+        <v>0.01669125820548942</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0181413408108374</v>
+        <v>0.01834740715429857</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01913382279063584</v>
+        <v>0.01786073840149596</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01356931306186288</v>
+        <v>0.01389274265977877</v>
       </c>
     </row>
     <row r="25">
@@ -1044,16 +1044,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.001465908933398905</v>
+        <v>0.001810265934453721</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.002549500294740341</v>
+        <v>0.002542866608237609</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.001284414829924612</v>
+        <v>0.001280776041667435</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.002713047710688256</v>
+        <v>0.001837413555399574</v>
       </c>
     </row>
     <row r="27">
@@ -1064,16 +1064,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01363436873721226</v>
+        <v>0.01423208508357831</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01425964013729615</v>
+        <v>0.01454588453504188</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01084524195189979</v>
+        <v>0.01073646764859399</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01117481770617996</v>
+        <v>0.0115430952471658</v>
       </c>
     </row>
     <row r="28">
@@ -1097,7 +1097,7 @@
         <v>0.005103081089591228</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.004891766763541077</v>
+        <v>0.004891766763541078</v>
       </c>
     </row>
     <row r="29">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.004759827443151944</v>
+        <v>0.004661606530646006</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.003823710410201663</v>
+        <v>0.003830045090362292</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.003156631739726414</v>
+        <v>0.003234752368892207</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.003196981177204124</v>
+        <v>0.003320410546481231</v>
       </c>
     </row>
     <row r="30">
@@ -1128,16 +1128,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01039927954728383</v>
+        <v>0.01023752702259107</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.009577382402697163</v>
+        <v>0.009826329673771079</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.008092683746887307</v>
+        <v>0.008093564605366345</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.006954841523604654</v>
+        <v>0.007163629539770858</v>
       </c>
     </row>
     <row r="31">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7">
@@ -1310,16 +1310,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6701</v>
+        <v>6169</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5359</v>
+        <v>5699</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5170</v>
+        <v>4832</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4243</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="8">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1162</v>
+        <v>1084</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11">
@@ -1394,16 +1394,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9143</v>
+        <v>8776</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10744</v>
+        <v>11550</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10815</v>
+        <v>9981</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6463</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="12">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
@@ -1476,14 +1476,14 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5062</v>
+        <v>5603</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8471</v>
+        <v>8495</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>5076</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="16">
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
@@ -1556,14 +1556,14 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8920</v>
+        <v>8146</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9124</v>
+        <v>8546</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>3650</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="20">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5636</v>
+        <v>5056</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>8976</v>
+        <v>8321</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2783</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="24">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>999</v>
+        <v>1219</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9613</v>
+        <v>10085</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5798</v>
+        <v>6701</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>2800</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="28">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1912</v>
+        <v>1899</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2204</v>
+        <v>2135</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2057</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="31">
@@ -1798,16 +1798,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11021</v>
+        <v>10653</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12549</v>
+        <v>12692</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13227</v>
+        <v>12347</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10456</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="32">
@@ -1862,16 +1862,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1149</v>
+        <v>1418</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2252</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="35">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>10683</v>
+        <v>11151</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>11701</v>
+        <v>11936</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>8960</v>
+        <v>8870</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>9275</v>
+        <v>9581</v>
       </c>
     </row>
     <row r="36">
@@ -1946,16 +1946,16 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>16076</v>
+        <v>15744</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>13520</v>
+        <v>13543</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>11189</v>
+        <v>11466</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>11918</v>
+        <v>12378</v>
       </c>
     </row>
     <row r="39">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>35122</v>
+        <v>34576</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>33865</v>
+        <v>34745</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>28685</v>
+        <v>28688</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>25928</v>
+        <v>26706</v>
       </c>
     </row>
     <row r="40">
